--- a/src/main/resources/data/special/SpecialEvent_test.xlsx
+++ b/src/main/resources/data/special/SpecialEvent_test.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD213EB-4FEB-4836-B241-C71E8BEFDBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8265FE-C8F2-49CE-BBA2-1124D9964537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>title</t>
   </si>
@@ -299,12 +310,1840 @@
     <t>EXT019.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>우리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>언제부터인가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>푸른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하늘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그리워하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>되었다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>먼지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>낀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>창문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>너머로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아이들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하늘은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>언제나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>파랗다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아이들은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>진짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하늘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>적이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>도시에선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>바람이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사라졌고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>강에서는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>물이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>흐르지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>않고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사람들은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>조심해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공기’를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>들이쉰다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>당연했던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>것들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하나씩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>기념일이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>되었다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. \n
+‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>관측의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>날’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> \n
+‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>생물다양성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>주간’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> \n
+‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>마지막</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>비의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>추모일’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그리고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>마침내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사람들은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>말하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>시작했다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. \n
+“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정치가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아니라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>살아남을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수단이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>필요하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.” \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그렇게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>시작된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>환경위원회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이름은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>블루플래닛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그리고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>당신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>모두가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>잊고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>있던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하늘의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>색을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>되찾아줄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>당신이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>내리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>선택은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사람의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>생명을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>송이의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>꽃을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그리고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>줄기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>지켜낼지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>모른다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>지금부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>선택은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>당신에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>달려</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. \n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>언제부터인가</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT000.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +2179,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -349,7 +2220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -402,11 +2273,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -430,6 +2312,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -770,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -782,7 +2686,7 @@
     <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" thickBot="1">
+    <row r="1" spans="1:9" ht="33.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -807,8 +2711,11 @@
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="380.25" thickBot="1">
+      <c r="I1" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="380.25" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -833,8 +2740,11 @@
       <c r="H2" s="4">
         <v>-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="330.75" thickBot="1">
+      <c r="I2" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="330.75" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -859,8 +2769,11 @@
       <c r="H3" s="4">
         <v>-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="297.75" thickBot="1">
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="297.75" thickBot="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -885,8 +2798,11 @@
       <c r="H4" s="4">
         <v>-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="281.25" thickBot="1">
+      <c r="I4" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="281.25" thickBot="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -911,8 +2827,11 @@
       <c r="H5" s="4">
         <v>-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="314.25" thickBot="1">
+      <c r="I5" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="314.25" thickBot="1">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -937,8 +2856,11 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="248.25" thickBot="1">
+      <c r="I6" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="248.25" thickBot="1">
       <c r="A7" s="4">
         <v>8</v>
       </c>
@@ -963,8 +2885,11 @@
       <c r="H7" s="4">
         <v>-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="264.75" thickBot="1">
+      <c r="I7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="264.75" thickBot="1">
       <c r="A8" s="4">
         <v>9</v>
       </c>
@@ -989,8 +2914,11 @@
       <c r="H8" s="4">
         <v>-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="231.75" thickBot="1">
+      <c r="I8" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="231.75" thickBot="1">
       <c r="A9" s="4">
         <v>11</v>
       </c>
@@ -1015,8 +2943,11 @@
       <c r="H9" s="4">
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="231.75" thickBot="1">
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="231.75" thickBot="1">
       <c r="A10" s="4">
         <v>12</v>
       </c>
@@ -1041,8 +2972,11 @@
       <c r="H10" s="4">
         <v>-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="165.75" thickBot="1">
+      <c r="I10" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="165.75" thickBot="1">
       <c r="A11" s="4">
         <v>14</v>
       </c>
@@ -1067,8 +3001,11 @@
       <c r="H11" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="130.5" thickBot="1">
+      <c r="I11" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="130.5" thickBot="1">
       <c r="A12" s="4">
         <v>15</v>
       </c>
@@ -1093,8 +3030,11 @@
       <c r="H12" s="8">
         <v>-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="102" thickBot="1">
+      <c r="I12" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="102" thickBot="1">
       <c r="A13" s="4">
         <v>16</v>
       </c>
@@ -1119,8 +3059,11 @@
       <c r="H13" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="116.25" thickBot="1">
+      <c r="I13" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="116.25" thickBot="1">
       <c r="A14" s="4">
         <v>17</v>
       </c>
@@ -1145,8 +3088,11 @@
       <c r="H14" s="8">
         <v>-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="116.25" thickBot="1">
+      <c r="I14" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="116.25" thickBot="1">
       <c r="A15" s="4">
         <v>18</v>
       </c>
@@ -1171,8 +3117,11 @@
       <c r="H15" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="116.25" thickBot="1">
+      <c r="I15" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="116.25" thickBot="1">
       <c r="A16" s="4">
         <v>19</v>
       </c>
@@ -1197,8 +3146,11 @@
       <c r="H16" s="8">
         <v>-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="130.5" thickBot="1">
+      <c r="I16" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="130.5" thickBot="1">
       <c r="A17" s="4">
         <v>20</v>
       </c>
@@ -1223,8 +3175,11 @@
       <c r="H17" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="116.25" thickBot="1">
+      <c r="I17" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="116.25" thickBot="1">
       <c r="A18" s="4">
         <v>21</v>
       </c>
@@ -1249,8 +3204,11 @@
       <c r="H18" s="8">
         <v>-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="144.75" thickBot="1">
+      <c r="I18" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="144.75" thickBot="1">
       <c r="A19" s="4">
         <v>22</v>
       </c>
@@ -1275,6 +3233,2927 @@
       <c r="H19" s="8">
         <v>6</v>
       </c>
+      <c r="I19" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="409.6" thickBot="1">
+      <c r="A20" s="13">
+        <v>0</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" thickBot="1">
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" thickBot="1">
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" thickBot="1">
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" thickBot="1">
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" thickBot="1">
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" ht="17.25" thickBot="1">
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" thickBot="1">
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" thickBot="1">
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" thickBot="1">
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" ht="17.25" thickBot="1">
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" thickBot="1">
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" thickBot="1">
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I66" s="12"/>
+    </row>
+    <row r="67" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I67" s="12"/>
+    </row>
+    <row r="68" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I68" s="12"/>
+    </row>
+    <row r="69" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I70" s="12"/>
+    </row>
+    <row r="71" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I73" s="12"/>
+    </row>
+    <row r="74" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I77" s="12"/>
+    </row>
+    <row r="78" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I81" s="12"/>
+    </row>
+    <row r="82" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I84" s="12"/>
+    </row>
+    <row r="85" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I107" s="12"/>
+    </row>
+    <row r="108" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I108" s="12"/>
+    </row>
+    <row r="109" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I111" s="12"/>
+    </row>
+    <row r="112" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I113" s="12"/>
+    </row>
+    <row r="114" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I114" s="12"/>
+    </row>
+    <row r="115" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I115" s="12"/>
+    </row>
+    <row r="116" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I116" s="12"/>
+    </row>
+    <row r="117" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I117" s="12"/>
+    </row>
+    <row r="118" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I118" s="12"/>
+    </row>
+    <row r="119" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I119" s="12"/>
+    </row>
+    <row r="120" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I120" s="12"/>
+    </row>
+    <row r="121" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I121" s="12"/>
+    </row>
+    <row r="122" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I122" s="12"/>
+    </row>
+    <row r="123" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I123" s="12"/>
+    </row>
+    <row r="124" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I124" s="12"/>
+    </row>
+    <row r="125" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I125" s="12"/>
+    </row>
+    <row r="126" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I126" s="12"/>
+    </row>
+    <row r="127" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I127" s="12"/>
+    </row>
+    <row r="128" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I128" s="12"/>
+    </row>
+    <row r="129" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I129" s="12"/>
+    </row>
+    <row r="130" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I130" s="12"/>
+    </row>
+    <row r="131" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I131" s="12"/>
+    </row>
+    <row r="132" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I132" s="12"/>
+    </row>
+    <row r="133" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I133" s="12"/>
+    </row>
+    <row r="134" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I134" s="12"/>
+    </row>
+    <row r="135" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I135" s="12"/>
+    </row>
+    <row r="136" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I136" s="12"/>
+    </row>
+    <row r="137" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I137" s="12"/>
+    </row>
+    <row r="138" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I138" s="12"/>
+    </row>
+    <row r="139" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I139" s="12"/>
+    </row>
+    <row r="140" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I140" s="12"/>
+    </row>
+    <row r="141" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I141" s="12"/>
+    </row>
+    <row r="142" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I142" s="12"/>
+    </row>
+    <row r="143" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I143" s="12"/>
+    </row>
+    <row r="144" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I144" s="12"/>
+    </row>
+    <row r="145" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I145" s="12"/>
+    </row>
+    <row r="146" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I146" s="12"/>
+    </row>
+    <row r="147" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I147" s="12"/>
+    </row>
+    <row r="148" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I148" s="12"/>
+    </row>
+    <row r="149" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I149" s="12"/>
+    </row>
+    <row r="150" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I150" s="12"/>
+    </row>
+    <row r="151" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I151" s="12"/>
+    </row>
+    <row r="152" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I152" s="12"/>
+    </row>
+    <row r="153" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I153" s="12"/>
+    </row>
+    <row r="154" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I154" s="12"/>
+    </row>
+    <row r="155" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I155" s="12"/>
+    </row>
+    <row r="156" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I156" s="12"/>
+    </row>
+    <row r="157" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I157" s="12"/>
+    </row>
+    <row r="158" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I158" s="12"/>
+    </row>
+    <row r="159" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I159" s="12"/>
+    </row>
+    <row r="160" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I160" s="12"/>
+    </row>
+    <row r="161" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I161" s="12"/>
+    </row>
+    <row r="162" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I162" s="12"/>
+    </row>
+    <row r="163" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I163" s="12"/>
+    </row>
+    <row r="164" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I164" s="12"/>
+    </row>
+    <row r="165" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I165" s="12"/>
+    </row>
+    <row r="166" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I166" s="12"/>
+    </row>
+    <row r="167" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I167" s="12"/>
+    </row>
+    <row r="168" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I168" s="12"/>
+    </row>
+    <row r="169" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I169" s="12"/>
+    </row>
+    <row r="170" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I170" s="12"/>
+    </row>
+    <row r="171" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I171" s="12"/>
+    </row>
+    <row r="172" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I172" s="12"/>
+    </row>
+    <row r="173" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I173" s="12"/>
+    </row>
+    <row r="174" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I174" s="12"/>
+    </row>
+    <row r="175" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I175" s="12"/>
+    </row>
+    <row r="176" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I176" s="12"/>
+    </row>
+    <row r="177" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I177" s="12"/>
+    </row>
+    <row r="178" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I178" s="12"/>
+    </row>
+    <row r="179" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I179" s="12"/>
+    </row>
+    <row r="180" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I180" s="12"/>
+    </row>
+    <row r="181" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I181" s="12"/>
+    </row>
+    <row r="182" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I182" s="12"/>
+    </row>
+    <row r="183" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I183" s="12"/>
+    </row>
+    <row r="184" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I184" s="12"/>
+    </row>
+    <row r="185" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I186" s="12"/>
+    </row>
+    <row r="187" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I187" s="12"/>
+    </row>
+    <row r="188" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I188" s="12"/>
+    </row>
+    <row r="189" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I189" s="12"/>
+    </row>
+    <row r="190" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I190" s="12"/>
+    </row>
+    <row r="191" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I191" s="12"/>
+    </row>
+    <row r="192" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I192" s="12"/>
+    </row>
+    <row r="193" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I193" s="12"/>
+    </row>
+    <row r="194" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I194" s="12"/>
+    </row>
+    <row r="195" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I195" s="12"/>
+    </row>
+    <row r="196" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I196" s="12"/>
+    </row>
+    <row r="197" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I197" s="12"/>
+    </row>
+    <row r="198" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I198" s="12"/>
+    </row>
+    <row r="199" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I199" s="12"/>
+    </row>
+    <row r="200" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I200" s="12"/>
+    </row>
+    <row r="201" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I201" s="12"/>
+    </row>
+    <row r="202" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I202" s="12"/>
+    </row>
+    <row r="203" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I203" s="12"/>
+    </row>
+    <row r="204" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I204" s="12"/>
+    </row>
+    <row r="205" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I205" s="12"/>
+    </row>
+    <row r="206" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I206" s="12"/>
+    </row>
+    <row r="207" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I207" s="12"/>
+    </row>
+    <row r="208" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I208" s="12"/>
+    </row>
+    <row r="209" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I209" s="12"/>
+    </row>
+    <row r="210" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I210" s="12"/>
+    </row>
+    <row r="211" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I211" s="12"/>
+    </row>
+    <row r="212" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I212" s="12"/>
+    </row>
+    <row r="213" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I213" s="12"/>
+    </row>
+    <row r="214" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I214" s="12"/>
+    </row>
+    <row r="215" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I215" s="12"/>
+    </row>
+    <row r="216" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I216" s="12"/>
+    </row>
+    <row r="217" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I217" s="12"/>
+    </row>
+    <row r="218" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I218" s="12"/>
+    </row>
+    <row r="219" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I219" s="12"/>
+    </row>
+    <row r="220" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I220" s="12"/>
+    </row>
+    <row r="221" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I221" s="12"/>
+    </row>
+    <row r="222" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I222" s="12"/>
+    </row>
+    <row r="223" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I223" s="12"/>
+    </row>
+    <row r="224" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I224" s="12"/>
+    </row>
+    <row r="225" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I225" s="12"/>
+    </row>
+    <row r="226" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I226" s="12"/>
+    </row>
+    <row r="227" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I227" s="12"/>
+    </row>
+    <row r="228" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I228" s="12"/>
+    </row>
+    <row r="229" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I229" s="12"/>
+    </row>
+    <row r="230" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I230" s="12"/>
+    </row>
+    <row r="231" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I231" s="12"/>
+    </row>
+    <row r="232" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I232" s="12"/>
+    </row>
+    <row r="233" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I233" s="12"/>
+    </row>
+    <row r="234" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I234" s="12"/>
+    </row>
+    <row r="235" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I235" s="12"/>
+    </row>
+    <row r="236" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I236" s="12"/>
+    </row>
+    <row r="237" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I237" s="12"/>
+    </row>
+    <row r="238" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I238" s="12"/>
+    </row>
+    <row r="239" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I239" s="12"/>
+    </row>
+    <row r="240" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I240" s="12"/>
+    </row>
+    <row r="241" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I241" s="12"/>
+    </row>
+    <row r="242" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I242" s="12"/>
+    </row>
+    <row r="243" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I243" s="12"/>
+    </row>
+    <row r="244" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I244" s="12"/>
+    </row>
+    <row r="245" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I245" s="12"/>
+    </row>
+    <row r="246" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I246" s="12"/>
+    </row>
+    <row r="247" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I247" s="12"/>
+    </row>
+    <row r="248" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I248" s="12"/>
+    </row>
+    <row r="249" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I249" s="12"/>
+    </row>
+    <row r="250" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I250" s="12"/>
+    </row>
+    <row r="251" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I251" s="12"/>
+    </row>
+    <row r="252" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I252" s="12"/>
+    </row>
+    <row r="253" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I253" s="12"/>
+    </row>
+    <row r="254" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I254" s="12"/>
+    </row>
+    <row r="255" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I255" s="12"/>
+    </row>
+    <row r="256" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I256" s="12"/>
+    </row>
+    <row r="257" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I257" s="12"/>
+    </row>
+    <row r="258" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I258" s="12"/>
+    </row>
+    <row r="259" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I259" s="12"/>
+    </row>
+    <row r="260" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I260" s="12"/>
+    </row>
+    <row r="261" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I261" s="12"/>
+    </row>
+    <row r="262" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I262" s="12"/>
+    </row>
+    <row r="263" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I263" s="12"/>
+    </row>
+    <row r="264" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I264" s="12"/>
+    </row>
+    <row r="265" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I265" s="12"/>
+    </row>
+    <row r="266" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I266" s="12"/>
+    </row>
+    <row r="267" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I267" s="12"/>
+    </row>
+    <row r="268" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I268" s="12"/>
+    </row>
+    <row r="269" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I269" s="12"/>
+    </row>
+    <row r="270" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I270" s="12"/>
+    </row>
+    <row r="271" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I271" s="12"/>
+    </row>
+    <row r="272" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I272" s="12"/>
+    </row>
+    <row r="273" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I273" s="12"/>
+    </row>
+    <row r="274" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I274" s="12"/>
+    </row>
+    <row r="275" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I275" s="12"/>
+    </row>
+    <row r="276" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I276" s="12"/>
+    </row>
+    <row r="277" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I277" s="12"/>
+    </row>
+    <row r="278" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I278" s="12"/>
+    </row>
+    <row r="279" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I279" s="12"/>
+    </row>
+    <row r="280" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I280" s="12"/>
+    </row>
+    <row r="281" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I281" s="12"/>
+    </row>
+    <row r="282" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I282" s="12"/>
+    </row>
+    <row r="283" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I283" s="12"/>
+    </row>
+    <row r="284" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I284" s="12"/>
+    </row>
+    <row r="285" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I285" s="12"/>
+    </row>
+    <row r="286" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I286" s="12"/>
+    </row>
+    <row r="287" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I287" s="12"/>
+    </row>
+    <row r="288" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I288" s="12"/>
+    </row>
+    <row r="289" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I289" s="12"/>
+    </row>
+    <row r="290" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I290" s="12"/>
+    </row>
+    <row r="291" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I291" s="12"/>
+    </row>
+    <row r="292" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I292" s="12"/>
+    </row>
+    <row r="293" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I293" s="12"/>
+    </row>
+    <row r="294" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I294" s="12"/>
+    </row>
+    <row r="295" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I295" s="12"/>
+    </row>
+    <row r="296" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I296" s="12"/>
+    </row>
+    <row r="297" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I297" s="12"/>
+    </row>
+    <row r="298" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I298" s="12"/>
+    </row>
+    <row r="299" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I299" s="12"/>
+    </row>
+    <row r="300" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I300" s="12"/>
+    </row>
+    <row r="301" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I301" s="12"/>
+    </row>
+    <row r="302" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I302" s="12"/>
+    </row>
+    <row r="303" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I303" s="12"/>
+    </row>
+    <row r="304" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I304" s="12"/>
+    </row>
+    <row r="305" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I305" s="12"/>
+    </row>
+    <row r="306" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I306" s="12"/>
+    </row>
+    <row r="307" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I307" s="12"/>
+    </row>
+    <row r="308" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I308" s="12"/>
+    </row>
+    <row r="309" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I309" s="12"/>
+    </row>
+    <row r="310" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I310" s="12"/>
+    </row>
+    <row r="311" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I311" s="12"/>
+    </row>
+    <row r="312" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I312" s="12"/>
+    </row>
+    <row r="313" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I313" s="12"/>
+    </row>
+    <row r="314" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I314" s="12"/>
+    </row>
+    <row r="315" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I315" s="12"/>
+    </row>
+    <row r="316" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I316" s="12"/>
+    </row>
+    <row r="317" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I317" s="12"/>
+    </row>
+    <row r="318" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I318" s="12"/>
+    </row>
+    <row r="319" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I319" s="12"/>
+    </row>
+    <row r="320" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I320" s="12"/>
+    </row>
+    <row r="321" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I321" s="12"/>
+    </row>
+    <row r="322" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I322" s="12"/>
+    </row>
+    <row r="323" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I323" s="12"/>
+    </row>
+    <row r="324" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I324" s="12"/>
+    </row>
+    <row r="325" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I325" s="12"/>
+    </row>
+    <row r="326" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I326" s="12"/>
+    </row>
+    <row r="327" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I327" s="12"/>
+    </row>
+    <row r="328" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I328" s="12"/>
+    </row>
+    <row r="329" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I329" s="12"/>
+    </row>
+    <row r="330" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I330" s="12"/>
+    </row>
+    <row r="331" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I331" s="12"/>
+    </row>
+    <row r="332" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I332" s="12"/>
+    </row>
+    <row r="333" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I333" s="12"/>
+    </row>
+    <row r="334" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I334" s="12"/>
+    </row>
+    <row r="335" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I335" s="12"/>
+    </row>
+    <row r="336" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I336" s="12"/>
+    </row>
+    <row r="337" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I337" s="12"/>
+    </row>
+    <row r="338" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I338" s="12"/>
+    </row>
+    <row r="339" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I339" s="12"/>
+    </row>
+    <row r="340" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I340" s="12"/>
+    </row>
+    <row r="341" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I341" s="12"/>
+    </row>
+    <row r="342" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I342" s="12"/>
+    </row>
+    <row r="343" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I343" s="12"/>
+    </row>
+    <row r="344" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I344" s="12"/>
+    </row>
+    <row r="345" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I345" s="12"/>
+    </row>
+    <row r="346" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I346" s="12"/>
+    </row>
+    <row r="347" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I347" s="12"/>
+    </row>
+    <row r="348" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I348" s="12"/>
+    </row>
+    <row r="349" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I349" s="12"/>
+    </row>
+    <row r="350" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I350" s="12"/>
+    </row>
+    <row r="351" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I351" s="12"/>
+    </row>
+    <row r="352" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I352" s="12"/>
+    </row>
+    <row r="353" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I353" s="12"/>
+    </row>
+    <row r="354" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I354" s="12"/>
+    </row>
+    <row r="355" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I355" s="12"/>
+    </row>
+    <row r="356" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I356" s="12"/>
+    </row>
+    <row r="357" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I357" s="12"/>
+    </row>
+    <row r="358" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I358" s="12"/>
+    </row>
+    <row r="359" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I359" s="12"/>
+    </row>
+    <row r="360" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I360" s="12"/>
+    </row>
+    <row r="361" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I361" s="12"/>
+    </row>
+    <row r="362" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I362" s="12"/>
+    </row>
+    <row r="363" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I363" s="12"/>
+    </row>
+    <row r="364" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I364" s="12"/>
+    </row>
+    <row r="365" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I365" s="12"/>
+    </row>
+    <row r="366" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I366" s="12"/>
+    </row>
+    <row r="367" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I367" s="12"/>
+    </row>
+    <row r="368" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I368" s="12"/>
+    </row>
+    <row r="369" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I369" s="12"/>
+    </row>
+    <row r="370" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I370" s="12"/>
+    </row>
+    <row r="371" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I371" s="12"/>
+    </row>
+    <row r="372" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I372" s="12"/>
+    </row>
+    <row r="373" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I373" s="12"/>
+    </row>
+    <row r="374" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I374" s="12"/>
+    </row>
+    <row r="375" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I375" s="12"/>
+    </row>
+    <row r="376" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I376" s="12"/>
+    </row>
+    <row r="377" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I377" s="12"/>
+    </row>
+    <row r="378" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I378" s="12"/>
+    </row>
+    <row r="379" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I379" s="12"/>
+    </row>
+    <row r="380" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I380" s="12"/>
+    </row>
+    <row r="381" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I381" s="12"/>
+    </row>
+    <row r="382" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I382" s="12"/>
+    </row>
+    <row r="383" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I383" s="12"/>
+    </row>
+    <row r="384" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I384" s="12"/>
+    </row>
+    <row r="385" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I385" s="12"/>
+    </row>
+    <row r="386" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I386" s="12"/>
+    </row>
+    <row r="387" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I387" s="12"/>
+    </row>
+    <row r="388" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I388" s="12"/>
+    </row>
+    <row r="389" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I389" s="12"/>
+    </row>
+    <row r="390" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I390" s="12"/>
+    </row>
+    <row r="391" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I391" s="12"/>
+    </row>
+    <row r="392" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I392" s="12"/>
+    </row>
+    <row r="393" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I393" s="12"/>
+    </row>
+    <row r="394" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I394" s="12"/>
+    </row>
+    <row r="395" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I395" s="12"/>
+    </row>
+    <row r="396" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I396" s="12"/>
+    </row>
+    <row r="397" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I397" s="12"/>
+    </row>
+    <row r="398" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I398" s="12"/>
+    </row>
+    <row r="399" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I399" s="12"/>
+    </row>
+    <row r="400" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I400" s="12"/>
+    </row>
+    <row r="401" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I401" s="12"/>
+    </row>
+    <row r="402" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I402" s="12"/>
+    </row>
+    <row r="403" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I403" s="12"/>
+    </row>
+    <row r="404" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I404" s="12"/>
+    </row>
+    <row r="405" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I405" s="12"/>
+    </row>
+    <row r="406" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I406" s="12"/>
+    </row>
+    <row r="407" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I407" s="12"/>
+    </row>
+    <row r="408" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I408" s="12"/>
+    </row>
+    <row r="409" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I409" s="12"/>
+    </row>
+    <row r="410" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I410" s="12"/>
+    </row>
+    <row r="411" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I411" s="12"/>
+    </row>
+    <row r="412" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I412" s="12"/>
+    </row>
+    <row r="413" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I413" s="12"/>
+    </row>
+    <row r="414" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I414" s="12"/>
+    </row>
+    <row r="415" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I415" s="12"/>
+    </row>
+    <row r="416" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I416" s="12"/>
+    </row>
+    <row r="417" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I417" s="12"/>
+    </row>
+    <row r="418" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I418" s="12"/>
+    </row>
+    <row r="419" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I419" s="12"/>
+    </row>
+    <row r="420" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I420" s="12"/>
+    </row>
+    <row r="421" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I421" s="12"/>
+    </row>
+    <row r="422" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I422" s="12"/>
+    </row>
+    <row r="423" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I423" s="12"/>
+    </row>
+    <row r="424" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I424" s="12"/>
+    </row>
+    <row r="425" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I425" s="12"/>
+    </row>
+    <row r="426" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I426" s="12"/>
+    </row>
+    <row r="427" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I427" s="12"/>
+    </row>
+    <row r="428" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I428" s="12"/>
+    </row>
+    <row r="429" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I429" s="12"/>
+    </row>
+    <row r="430" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I430" s="12"/>
+    </row>
+    <row r="431" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I431" s="12"/>
+    </row>
+    <row r="432" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I432" s="12"/>
+    </row>
+    <row r="433" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I433" s="12"/>
+    </row>
+    <row r="434" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I434" s="12"/>
+    </row>
+    <row r="435" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I435" s="12"/>
+    </row>
+    <row r="436" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I436" s="12"/>
+    </row>
+    <row r="437" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I437" s="12"/>
+    </row>
+    <row r="438" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I438" s="12"/>
+    </row>
+    <row r="439" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I439" s="12"/>
+    </row>
+    <row r="440" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I440" s="12"/>
+    </row>
+    <row r="441" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I441" s="12"/>
+    </row>
+    <row r="442" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I442" s="12"/>
+    </row>
+    <row r="443" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I443" s="12"/>
+    </row>
+    <row r="444" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I444" s="12"/>
+    </row>
+    <row r="445" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I445" s="12"/>
+    </row>
+    <row r="446" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I446" s="12"/>
+    </row>
+    <row r="447" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I447" s="12"/>
+    </row>
+    <row r="448" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I448" s="12"/>
+    </row>
+    <row r="449" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I449" s="12"/>
+    </row>
+    <row r="450" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I450" s="12"/>
+    </row>
+    <row r="451" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I451" s="12"/>
+    </row>
+    <row r="452" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I452" s="12"/>
+    </row>
+    <row r="453" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I453" s="12"/>
+    </row>
+    <row r="454" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I454" s="12"/>
+    </row>
+    <row r="455" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I455" s="12"/>
+    </row>
+    <row r="456" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I456" s="12"/>
+    </row>
+    <row r="457" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I457" s="12"/>
+    </row>
+    <row r="458" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I458" s="12"/>
+    </row>
+    <row r="459" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I459" s="12"/>
+    </row>
+    <row r="460" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I460" s="12"/>
+    </row>
+    <row r="461" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I461" s="12"/>
+    </row>
+    <row r="462" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I462" s="12"/>
+    </row>
+    <row r="463" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I463" s="12"/>
+    </row>
+    <row r="464" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I464" s="12"/>
+    </row>
+    <row r="465" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I465" s="12"/>
+    </row>
+    <row r="466" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I466" s="12"/>
+    </row>
+    <row r="467" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I467" s="12"/>
+    </row>
+    <row r="468" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I468" s="12"/>
+    </row>
+    <row r="469" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I469" s="12"/>
+    </row>
+    <row r="470" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I470" s="12"/>
+    </row>
+    <row r="471" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I471" s="12"/>
+    </row>
+    <row r="472" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I472" s="12"/>
+    </row>
+    <row r="473" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I473" s="12"/>
+    </row>
+    <row r="474" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I474" s="12"/>
+    </row>
+    <row r="475" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I475" s="12"/>
+    </row>
+    <row r="476" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I476" s="12"/>
+    </row>
+    <row r="477" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I477" s="12"/>
+    </row>
+    <row r="478" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I478" s="12"/>
+    </row>
+    <row r="479" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I479" s="12"/>
+    </row>
+    <row r="480" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I480" s="12"/>
+    </row>
+    <row r="481" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I481" s="12"/>
+    </row>
+    <row r="482" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I482" s="12"/>
+    </row>
+    <row r="483" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I483" s="12"/>
+    </row>
+    <row r="484" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I484" s="12"/>
+    </row>
+    <row r="485" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I485" s="12"/>
+    </row>
+    <row r="486" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I486" s="12"/>
+    </row>
+    <row r="487" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I487" s="12"/>
+    </row>
+    <row r="488" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I488" s="12"/>
+    </row>
+    <row r="489" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I489" s="12"/>
+    </row>
+    <row r="490" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I490" s="12"/>
+    </row>
+    <row r="491" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I491" s="12"/>
+    </row>
+    <row r="492" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I492" s="12"/>
+    </row>
+    <row r="493" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I493" s="12"/>
+    </row>
+    <row r="494" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I494" s="12"/>
+    </row>
+    <row r="495" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I495" s="12"/>
+    </row>
+    <row r="496" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I496" s="12"/>
+    </row>
+    <row r="497" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I497" s="12"/>
+    </row>
+    <row r="498" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I498" s="12"/>
+    </row>
+    <row r="499" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I499" s="12"/>
+    </row>
+    <row r="500" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I500" s="12"/>
+    </row>
+    <row r="501" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I501" s="12"/>
+    </row>
+    <row r="502" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I502" s="12"/>
+    </row>
+    <row r="503" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I503" s="12"/>
+    </row>
+    <row r="504" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I504" s="12"/>
+    </row>
+    <row r="505" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I505" s="12"/>
+    </row>
+    <row r="506" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I506" s="12"/>
+    </row>
+    <row r="507" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I507" s="12"/>
+    </row>
+    <row r="508" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I508" s="12"/>
+    </row>
+    <row r="509" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I509" s="12"/>
+    </row>
+    <row r="510" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I510" s="12"/>
+    </row>
+    <row r="511" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I511" s="12"/>
+    </row>
+    <row r="512" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I512" s="12"/>
+    </row>
+    <row r="513" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I513" s="12"/>
+    </row>
+    <row r="514" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I514" s="12"/>
+    </row>
+    <row r="515" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I515" s="12"/>
+    </row>
+    <row r="516" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I516" s="12"/>
+    </row>
+    <row r="517" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I517" s="12"/>
+    </row>
+    <row r="518" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I518" s="12"/>
+    </row>
+    <row r="519" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I519" s="12"/>
+    </row>
+    <row r="520" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I520" s="12"/>
+    </row>
+    <row r="521" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I521" s="12"/>
+    </row>
+    <row r="522" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I522" s="12"/>
+    </row>
+    <row r="523" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I523" s="12"/>
+    </row>
+    <row r="524" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I524" s="12"/>
+    </row>
+    <row r="525" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I525" s="12"/>
+    </row>
+    <row r="526" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I526" s="12"/>
+    </row>
+    <row r="527" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I527" s="12"/>
+    </row>
+    <row r="528" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I528" s="12"/>
+    </row>
+    <row r="529" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I529" s="12"/>
+    </row>
+    <row r="530" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I530" s="12"/>
+    </row>
+    <row r="531" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I531" s="12"/>
+    </row>
+    <row r="532" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I532" s="12"/>
+    </row>
+    <row r="533" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I533" s="12"/>
+    </row>
+    <row r="534" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I534" s="12"/>
+    </row>
+    <row r="535" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I535" s="12"/>
+    </row>
+    <row r="536" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I536" s="12"/>
+    </row>
+    <row r="537" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I537" s="12"/>
+    </row>
+    <row r="538" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I538" s="12"/>
+    </row>
+    <row r="539" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I539" s="12"/>
+    </row>
+    <row r="540" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I540" s="12"/>
+    </row>
+    <row r="541" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I541" s="12"/>
+    </row>
+    <row r="542" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I542" s="12"/>
+    </row>
+    <row r="543" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I543" s="12"/>
+    </row>
+    <row r="544" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I544" s="12"/>
+    </row>
+    <row r="545" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I545" s="12"/>
+    </row>
+    <row r="546" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I546" s="12"/>
+    </row>
+    <row r="547" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I547" s="12"/>
+    </row>
+    <row r="548" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I548" s="12"/>
+    </row>
+    <row r="549" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I549" s="12"/>
+    </row>
+    <row r="550" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I550" s="12"/>
+    </row>
+    <row r="551" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I551" s="12"/>
+    </row>
+    <row r="552" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I552" s="12"/>
+    </row>
+    <row r="553" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I553" s="12"/>
+    </row>
+    <row r="554" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I554" s="12"/>
+    </row>
+    <row r="555" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I555" s="12"/>
+    </row>
+    <row r="556" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I556" s="12"/>
+    </row>
+    <row r="557" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I557" s="12"/>
+    </row>
+    <row r="558" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I558" s="12"/>
+    </row>
+    <row r="559" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I559" s="12"/>
+    </row>
+    <row r="560" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I560" s="12"/>
+    </row>
+    <row r="561" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I561" s="12"/>
+    </row>
+    <row r="562" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I562" s="12"/>
+    </row>
+    <row r="563" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I563" s="12"/>
+    </row>
+    <row r="564" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I564" s="12"/>
+    </row>
+    <row r="565" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I565" s="12"/>
+    </row>
+    <row r="566" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I566" s="12"/>
+    </row>
+    <row r="567" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I567" s="12"/>
+    </row>
+    <row r="568" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I568" s="12"/>
+    </row>
+    <row r="569" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I569" s="12"/>
+    </row>
+    <row r="570" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I570" s="12"/>
+    </row>
+    <row r="571" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I571" s="12"/>
+    </row>
+    <row r="572" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I572" s="12"/>
+    </row>
+    <row r="573" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I573" s="12"/>
+    </row>
+    <row r="574" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I574" s="12"/>
+    </row>
+    <row r="575" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I575" s="12"/>
+    </row>
+    <row r="576" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I576" s="12"/>
+    </row>
+    <row r="577" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I577" s="12"/>
+    </row>
+    <row r="578" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I578" s="12"/>
+    </row>
+    <row r="579" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I579" s="12"/>
+    </row>
+    <row r="580" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I580" s="12"/>
+    </row>
+    <row r="581" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I581" s="12"/>
+    </row>
+    <row r="582" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I582" s="12"/>
+    </row>
+    <row r="583" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I583" s="12"/>
+    </row>
+    <row r="584" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I584" s="12"/>
+    </row>
+    <row r="585" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I585" s="12"/>
+    </row>
+    <row r="586" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I586" s="12"/>
+    </row>
+    <row r="587" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I587" s="12"/>
+    </row>
+    <row r="588" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I588" s="12"/>
+    </row>
+    <row r="589" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I589" s="12"/>
+    </row>
+    <row r="590" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I590" s="12"/>
+    </row>
+    <row r="591" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I591" s="12"/>
+    </row>
+    <row r="592" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I592" s="12"/>
+    </row>
+    <row r="593" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I593" s="12"/>
+    </row>
+    <row r="594" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I594" s="12"/>
+    </row>
+    <row r="595" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I595" s="12"/>
+    </row>
+    <row r="596" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I596" s="12"/>
+    </row>
+    <row r="597" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I597" s="12"/>
+    </row>
+    <row r="598" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I598" s="12"/>
+    </row>
+    <row r="599" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I599" s="12"/>
+    </row>
+    <row r="600" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I600" s="12"/>
+    </row>
+    <row r="601" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I601" s="12"/>
+    </row>
+    <row r="602" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I602" s="12"/>
+    </row>
+    <row r="603" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I603" s="12"/>
+    </row>
+    <row r="604" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I604" s="12"/>
+    </row>
+    <row r="605" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I605" s="12"/>
+    </row>
+    <row r="606" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I606" s="12"/>
+    </row>
+    <row r="607" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I607" s="12"/>
+    </row>
+    <row r="608" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I608" s="12"/>
+    </row>
+    <row r="609" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I609" s="12"/>
+    </row>
+    <row r="610" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I610" s="12"/>
+    </row>
+    <row r="611" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I611" s="12"/>
+    </row>
+    <row r="612" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I612" s="12"/>
+    </row>
+    <row r="613" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I613" s="12"/>
+    </row>
+    <row r="614" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I614" s="12"/>
+    </row>
+    <row r="615" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I615" s="12"/>
+    </row>
+    <row r="616" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I616" s="12"/>
+    </row>
+    <row r="617" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I617" s="12"/>
+    </row>
+    <row r="618" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I618" s="12"/>
+    </row>
+    <row r="619" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I619" s="12"/>
+    </row>
+    <row r="620" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I620" s="12"/>
+    </row>
+    <row r="621" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I621" s="12"/>
+    </row>
+    <row r="622" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I622" s="12"/>
+    </row>
+    <row r="623" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I623" s="12"/>
+    </row>
+    <row r="624" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I624" s="12"/>
+    </row>
+    <row r="625" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I625" s="12"/>
+    </row>
+    <row r="626" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I626" s="12"/>
+    </row>
+    <row r="627" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I627" s="12"/>
+    </row>
+    <row r="628" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I628" s="12"/>
+    </row>
+    <row r="629" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I629" s="12"/>
+    </row>
+    <row r="630" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I630" s="12"/>
+    </row>
+    <row r="631" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I631" s="12"/>
+    </row>
+    <row r="632" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I632" s="12"/>
+    </row>
+    <row r="633" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I633" s="12"/>
+    </row>
+    <row r="634" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I634" s="12"/>
+    </row>
+    <row r="635" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I635" s="12"/>
+    </row>
+    <row r="636" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I636" s="12"/>
+    </row>
+    <row r="637" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I637" s="12"/>
+    </row>
+    <row r="638" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I638" s="12"/>
+    </row>
+    <row r="639" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I639" s="12"/>
+    </row>
+    <row r="640" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I640" s="12"/>
+    </row>
+    <row r="641" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I641" s="12"/>
+    </row>
+    <row r="642" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I642" s="12"/>
+    </row>
+    <row r="643" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I643" s="12"/>
+    </row>
+    <row r="644" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I644" s="12"/>
+    </row>
+    <row r="645" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I645" s="12"/>
+    </row>
+    <row r="646" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I646" s="12"/>
+    </row>
+    <row r="647" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I647" s="12"/>
+    </row>
+    <row r="648" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I648" s="12"/>
+    </row>
+    <row r="649" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I649" s="12"/>
+    </row>
+    <row r="650" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I650" s="12"/>
+    </row>
+    <row r="651" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I651" s="12"/>
+    </row>
+    <row r="652" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I652" s="12"/>
+    </row>
+    <row r="653" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I653" s="12"/>
+    </row>
+    <row r="654" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I654" s="12"/>
+    </row>
+    <row r="655" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I655" s="12"/>
+    </row>
+    <row r="656" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I656" s="12"/>
+    </row>
+    <row r="657" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I657" s="12"/>
+    </row>
+    <row r="658" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I658" s="12"/>
+    </row>
+    <row r="659" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I659" s="12"/>
+    </row>
+    <row r="660" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I660" s="12"/>
+    </row>
+    <row r="661" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I661" s="12"/>
+    </row>
+    <row r="662" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I662" s="12"/>
+    </row>
+    <row r="663" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I663" s="12"/>
+    </row>
+    <row r="664" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I664" s="12"/>
+    </row>
+    <row r="665" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I665" s="12"/>
+    </row>
+    <row r="666" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I666" s="12"/>
+    </row>
+    <row r="667" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I667" s="12"/>
+    </row>
+    <row r="668" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I668" s="12"/>
+    </row>
+    <row r="669" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I669" s="12"/>
+    </row>
+    <row r="670" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I670" s="12"/>
+    </row>
+    <row r="671" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I671" s="12"/>
+    </row>
+    <row r="672" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I672" s="12"/>
+    </row>
+    <row r="673" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I673" s="12"/>
+    </row>
+    <row r="674" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I674" s="12"/>
+    </row>
+    <row r="675" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I675" s="12"/>
+    </row>
+    <row r="676" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I676" s="12"/>
+    </row>
+    <row r="677" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I677" s="12"/>
+    </row>
+    <row r="678" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I678" s="12"/>
+    </row>
+    <row r="679" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I679" s="12"/>
+    </row>
+    <row r="680" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I680" s="12"/>
+    </row>
+    <row r="681" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I681" s="12"/>
+    </row>
+    <row r="682" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I682" s="12"/>
+    </row>
+    <row r="683" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I683" s="12"/>
+    </row>
+    <row r="684" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I684" s="12"/>
+    </row>
+    <row r="685" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I685" s="12"/>
+    </row>
+    <row r="686" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I686" s="12"/>
+    </row>
+    <row r="687" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I687" s="12"/>
+    </row>
+    <row r="688" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I688" s="12"/>
+    </row>
+    <row r="689" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I689" s="12"/>
+    </row>
+    <row r="690" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I690" s="12"/>
+    </row>
+    <row r="691" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I691" s="12"/>
+    </row>
+    <row r="692" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I692" s="12"/>
+    </row>
+    <row r="693" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I693" s="12"/>
+    </row>
+    <row r="694" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I694" s="12"/>
+    </row>
+    <row r="695" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I695" s="12"/>
+    </row>
+    <row r="696" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I696" s="12"/>
+    </row>
+    <row r="697" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I697" s="12"/>
+    </row>
+    <row r="698" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I698" s="12"/>
+    </row>
+    <row r="699" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I699" s="12"/>
+    </row>
+    <row r="700" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I700" s="12"/>
+    </row>
+    <row r="701" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I701" s="12"/>
+    </row>
+    <row r="702" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I702" s="12"/>
+    </row>
+    <row r="703" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I703" s="12"/>
+    </row>
+    <row r="704" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I704" s="12"/>
+    </row>
+    <row r="705" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I705" s="12"/>
+    </row>
+    <row r="706" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I706" s="12"/>
+    </row>
+    <row r="707" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I707" s="12"/>
+    </row>
+    <row r="708" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I708" s="12"/>
+    </row>
+    <row r="709" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I709" s="12"/>
+    </row>
+    <row r="710" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I710" s="12"/>
+    </row>
+    <row r="711" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I711" s="12"/>
+    </row>
+    <row r="712" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I712" s="12"/>
+    </row>
+    <row r="713" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I713" s="12"/>
+    </row>
+    <row r="714" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I714" s="12"/>
+    </row>
+    <row r="715" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I715" s="12"/>
+    </row>
+    <row r="716" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I716" s="12"/>
+    </row>
+    <row r="717" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I717" s="12"/>
+    </row>
+    <row r="718" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I718" s="12"/>
+    </row>
+    <row r="719" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I719" s="12"/>
+    </row>
+    <row r="720" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I720" s="12"/>
+    </row>
+    <row r="721" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I721" s="12"/>
+    </row>
+    <row r="722" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I722" s="12"/>
+    </row>
+    <row r="723" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I723" s="12"/>
+    </row>
+    <row r="724" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I724" s="12"/>
+    </row>
+    <row r="725" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I725" s="12"/>
+    </row>
+    <row r="726" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I726" s="12"/>
+    </row>
+    <row r="727" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I727" s="12"/>
+    </row>
+    <row r="728" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I728" s="12"/>
+    </row>
+    <row r="729" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I729" s="12"/>
+    </row>
+    <row r="730" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I730" s="12"/>
+    </row>
+    <row r="731" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I731" s="12"/>
+    </row>
+    <row r="732" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I732" s="12"/>
+    </row>
+    <row r="733" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I733" s="12"/>
+    </row>
+    <row r="734" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I734" s="12"/>
+    </row>
+    <row r="735" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I735" s="12"/>
+    </row>
+    <row r="736" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I736" s="12"/>
+    </row>
+    <row r="737" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I737" s="12"/>
+    </row>
+    <row r="738" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I738" s="12"/>
+    </row>
+    <row r="739" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I739" s="12"/>
+    </row>
+    <row r="740" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I740" s="12"/>
+    </row>
+    <row r="741" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I741" s="12"/>
+    </row>
+    <row r="742" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I742" s="12"/>
+    </row>
+    <row r="743" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I743" s="12"/>
+    </row>
+    <row r="744" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I744" s="12"/>
+    </row>
+    <row r="745" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I745" s="12"/>
+    </row>
+    <row r="746" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I746" s="12"/>
+    </row>
+    <row r="747" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I747" s="12"/>
+    </row>
+    <row r="748" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I748" s="12"/>
+    </row>
+    <row r="749" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I749" s="12"/>
+    </row>
+    <row r="750" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I750" s="12"/>
+    </row>
+    <row r="751" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I751" s="12"/>
+    </row>
+    <row r="752" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I752" s="12"/>
+    </row>
+    <row r="753" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I753" s="12"/>
+    </row>
+    <row r="754" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I754" s="12"/>
+    </row>
+    <row r="755" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I755" s="12"/>
+    </row>
+    <row r="756" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I756" s="12"/>
+    </row>
+    <row r="757" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I757" s="12"/>
+    </row>
+    <row r="758" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I758" s="12"/>
+    </row>
+    <row r="759" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I759" s="12"/>
+    </row>
+    <row r="760" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I760" s="12"/>
+    </row>
+    <row r="761" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I761" s="12"/>
+    </row>
+    <row r="762" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I762" s="12"/>
+    </row>
+    <row r="763" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I763" s="12"/>
+    </row>
+    <row r="764" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I764" s="12"/>
+    </row>
+    <row r="765" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I765" s="12"/>
+    </row>
+    <row r="766" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I766" s="12"/>
+    </row>
+    <row r="767" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I767" s="12"/>
+    </row>
+    <row r="768" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I768" s="12"/>
+    </row>
+    <row r="769" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I769" s="12"/>
+    </row>
+    <row r="770" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I770" s="12"/>
+    </row>
+    <row r="771" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I771" s="12"/>
+    </row>
+    <row r="772" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I772" s="12"/>
+    </row>
+    <row r="773" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I773" s="12"/>
+    </row>
+    <row r="774" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I774" s="12"/>
+    </row>
+    <row r="775" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I775" s="12"/>
+    </row>
+    <row r="776" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I776" s="12"/>
+    </row>
+    <row r="777" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I777" s="12"/>
+    </row>
+    <row r="778" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I778" s="12"/>
+    </row>
+    <row r="779" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I779" s="12"/>
+    </row>
+    <row r="780" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I780" s="12"/>
+    </row>
+    <row r="781" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I781" s="12"/>
+    </row>
+    <row r="782" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I782" s="12"/>
+    </row>
+    <row r="783" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I783" s="12"/>
+    </row>
+    <row r="784" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I784" s="12"/>
+    </row>
+    <row r="785" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I785" s="12"/>
+    </row>
+    <row r="786" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I786" s="12"/>
+    </row>
+    <row r="787" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I787" s="12"/>
+    </row>
+    <row r="788" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I788" s="12"/>
+    </row>
+    <row r="789" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I789" s="12"/>
+    </row>
+    <row r="790" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I790" s="12"/>
+    </row>
+    <row r="791" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I791" s="12"/>
+    </row>
+    <row r="792" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I792" s="12"/>
+    </row>
+    <row r="793" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I793" s="12"/>
+    </row>
+    <row r="794" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I794" s="12"/>
+    </row>
+    <row r="795" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I795" s="12"/>
+    </row>
+    <row r="796" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I796" s="12"/>
+    </row>
+    <row r="797" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I797" s="12"/>
+    </row>
+    <row r="798" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I798" s="12"/>
+    </row>
+    <row r="799" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I799" s="12"/>
+    </row>
+    <row r="800" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I800" s="12"/>
+    </row>
+    <row r="801" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I801" s="12"/>
+    </row>
+    <row r="802" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I802" s="12"/>
+    </row>
+    <row r="803" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I803" s="12"/>
+    </row>
+    <row r="804" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I804" s="12"/>
+    </row>
+    <row r="805" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I805" s="12"/>
+    </row>
+    <row r="806" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I806" s="12"/>
+    </row>
+    <row r="807" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I807" s="12"/>
+    </row>
+    <row r="808" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I808" s="12"/>
+    </row>
+    <row r="809" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I809" s="12"/>
+    </row>
+    <row r="810" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I810" s="12"/>
+    </row>
+    <row r="811" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I811" s="12"/>
+    </row>
+    <row r="812" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I812" s="12"/>
+    </row>
+    <row r="813" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I813" s="12"/>
+    </row>
+    <row r="814" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I814" s="12"/>
+    </row>
+    <row r="815" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I815" s="12"/>
+    </row>
+    <row r="816" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I816" s="12"/>
+    </row>
+    <row r="817" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I817" s="12"/>
+    </row>
+    <row r="818" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I818" s="12"/>
+    </row>
+    <row r="819" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I819" s="12"/>
+    </row>
+    <row r="820" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I820" s="12"/>
+    </row>
+    <row r="821" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I821" s="12"/>
+    </row>
+    <row r="822" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I822" s="12"/>
+    </row>
+    <row r="823" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I823" s="12"/>
+    </row>
+    <row r="824" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I824" s="12"/>
+    </row>
+    <row r="825" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I825" s="12"/>
+    </row>
+    <row r="826" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I826" s="12"/>
+    </row>
+    <row r="827" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I827" s="12"/>
+    </row>
+    <row r="828" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I828" s="12"/>
+    </row>
+    <row r="829" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I829" s="12"/>
+    </row>
+    <row r="830" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I830" s="12"/>
+    </row>
+    <row r="831" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I831" s="12"/>
+    </row>
+    <row r="832" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I832" s="12"/>
+    </row>
+    <row r="833" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I833" s="12"/>
+    </row>
+    <row r="834" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I834" s="12"/>
+    </row>
+    <row r="835" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I835" s="12"/>
+    </row>
+    <row r="836" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I836" s="12"/>
+    </row>
+    <row r="837" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I837" s="12"/>
+    </row>
+    <row r="838" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I838" s="12"/>
+    </row>
+    <row r="839" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I839" s="12"/>
+    </row>
+    <row r="840" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I840" s="12"/>
+    </row>
+    <row r="841" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I841" s="12"/>
+    </row>
+    <row r="842" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I842" s="12"/>
+    </row>
+    <row r="843" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I843" s="12"/>
+    </row>
+    <row r="844" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I844" s="12"/>
+    </row>
+    <row r="845" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I845" s="12"/>
+    </row>
+    <row r="846" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I846" s="12"/>
+    </row>
+    <row r="847" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I847" s="12"/>
+    </row>
+    <row r="848" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I848" s="12"/>
+    </row>
+    <row r="849" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I849" s="12"/>
+    </row>
+    <row r="850" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I850" s="12"/>
+    </row>
+    <row r="851" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I851" s="12"/>
+    </row>
+    <row r="852" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I852" s="12"/>
+    </row>
+    <row r="853" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I853" s="12"/>
+    </row>
+    <row r="854" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I854" s="12"/>
+    </row>
+    <row r="855" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I855" s="12"/>
+    </row>
+    <row r="856" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I856" s="12"/>
+    </row>
+    <row r="857" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I857" s="12"/>
+    </row>
+    <row r="858" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I858" s="12"/>
+    </row>
+    <row r="859" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I859" s="12"/>
+    </row>
+    <row r="860" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I860" s="12"/>
+    </row>
+    <row r="861" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I861" s="12"/>
+    </row>
+    <row r="862" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I862" s="12"/>
+    </row>
+    <row r="863" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I863" s="12"/>
+    </row>
+    <row r="864" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I864" s="12"/>
+    </row>
+    <row r="865" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I865" s="12"/>
+    </row>
+    <row r="866" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I866" s="12"/>
+    </row>
+    <row r="867" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I867" s="12"/>
+    </row>
+    <row r="868" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I868" s="12"/>
+    </row>
+    <row r="869" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I869" s="12"/>
+    </row>
+    <row r="870" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I870" s="12"/>
+    </row>
+    <row r="871" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I871" s="12"/>
+    </row>
+    <row r="872" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I872" s="12"/>
+    </row>
+    <row r="873" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I873" s="12"/>
+    </row>
+    <row r="874" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I874" s="12"/>
+    </row>
+    <row r="875" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I875" s="12"/>
+    </row>
+    <row r="876" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I876" s="12"/>
+    </row>
+    <row r="877" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I877" s="12"/>
+    </row>
+    <row r="878" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I878" s="12"/>
+    </row>
+    <row r="879" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I879" s="12"/>
+    </row>
+    <row r="880" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I880" s="12"/>
+    </row>
+    <row r="881" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I881" s="12"/>
+    </row>
+    <row r="882" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I882" s="12"/>
+    </row>
+    <row r="883" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I883" s="12"/>
+    </row>
+    <row r="884" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I884" s="12"/>
+    </row>
+    <row r="885" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I885" s="12"/>
+    </row>
+    <row r="886" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I886" s="12"/>
+    </row>
+    <row r="887" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I887" s="12"/>
+    </row>
+    <row r="888" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I888" s="12"/>
+    </row>
+    <row r="889" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I889" s="12"/>
+    </row>
+    <row r="890" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I890" s="12"/>
+    </row>
+    <row r="891" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I891" s="12"/>
+    </row>
+    <row r="892" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I892" s="12"/>
+    </row>
+    <row r="893" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I893" s="12"/>
+    </row>
+    <row r="894" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I894" s="12"/>
+    </row>
+    <row r="895" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I895" s="12"/>
+    </row>
+    <row r="896" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I896" s="12"/>
+    </row>
+    <row r="897" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I897" s="12"/>
+    </row>
+    <row r="898" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I898" s="12"/>
+    </row>
+    <row r="899" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I899" s="12"/>
+    </row>
+    <row r="900" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I900" s="12"/>
+    </row>
+    <row r="901" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I901" s="12"/>
+    </row>
+    <row r="902" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I902" s="12"/>
+    </row>
+    <row r="903" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I903" s="12"/>
+    </row>
+    <row r="904" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I904" s="12"/>
+    </row>
+    <row r="905" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I905" s="12"/>
+    </row>
+    <row r="906" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I906" s="12"/>
+    </row>
+    <row r="907" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I907" s="12"/>
+    </row>
+    <row r="908" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I908" s="12"/>
+    </row>
+    <row r="909" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I909" s="12"/>
+    </row>
+    <row r="910" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I910" s="12"/>
+    </row>
+    <row r="911" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I911" s="12"/>
+    </row>
+    <row r="912" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I912" s="12"/>
+    </row>
+    <row r="913" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I913" s="12"/>
+    </row>
+    <row r="914" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I914" s="12"/>
+    </row>
+    <row r="915" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I915" s="12"/>
+    </row>
+    <row r="916" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I916" s="12"/>
+    </row>
+    <row r="917" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I917" s="12"/>
+    </row>
+    <row r="918" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I918" s="12"/>
+    </row>
+    <row r="919" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I919" s="12"/>
+    </row>
+    <row r="920" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I920" s="12"/>
+    </row>
+    <row r="921" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I921" s="12"/>
+    </row>
+    <row r="922" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I922" s="12"/>
+    </row>
+    <row r="923" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I923" s="12"/>
+    </row>
+    <row r="924" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I924" s="12"/>
+    </row>
+    <row r="925" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I925" s="12"/>
+    </row>
+    <row r="926" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I926" s="12"/>
+    </row>
+    <row r="927" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I927" s="12"/>
+    </row>
+    <row r="928" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I928" s="12"/>
+    </row>
+    <row r="929" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I929" s="12"/>
+    </row>
+    <row r="930" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I930" s="12"/>
+    </row>
+    <row r="931" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I931" s="12"/>
+    </row>
+    <row r="932" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I932" s="12"/>
+    </row>
+    <row r="933" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I933" s="12"/>
+    </row>
+    <row r="934" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I934" s="12"/>
+    </row>
+    <row r="935" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I935" s="12"/>
+    </row>
+    <row r="936" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I936" s="12"/>
+    </row>
+    <row r="937" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I937" s="12"/>
+    </row>
+    <row r="938" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I938" s="12"/>
+    </row>
+    <row r="939" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I939" s="12"/>
+    </row>
+    <row r="940" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I940" s="12"/>
+    </row>
+    <row r="941" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I941" s="12"/>
+    </row>
+    <row r="942" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I942" s="12"/>
+    </row>
+    <row r="943" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I943" s="12"/>
+    </row>
+    <row r="944" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I944" s="12"/>
+    </row>
+    <row r="945" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I945" s="12"/>
+    </row>
+    <row r="946" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I946" s="12"/>
+    </row>
+    <row r="947" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I947" s="12"/>
+    </row>
+    <row r="948" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I948" s="12"/>
+    </row>
+    <row r="949" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I949" s="12"/>
+    </row>
+    <row r="950" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I950" s="12"/>
+    </row>
+    <row r="951" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I951" s="12"/>
+    </row>
+    <row r="952" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I952" s="12"/>
+    </row>
+    <row r="953" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I953" s="12"/>
+    </row>
+    <row r="954" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I954" s="12"/>
+    </row>
+    <row r="955" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I955" s="12"/>
+    </row>
+    <row r="956" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I956" s="12"/>
+    </row>
+    <row r="957" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I957" s="12"/>
+    </row>
+    <row r="958" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I958" s="12"/>
+    </row>
+    <row r="959" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I959" s="12"/>
+    </row>
+    <row r="960" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I960" s="12"/>
+    </row>
+    <row r="961" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I961" s="12"/>
+    </row>
+    <row r="962" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I962" s="12"/>
+    </row>
+    <row r="963" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I963" s="12"/>
+    </row>
+    <row r="964" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I964" s="12"/>
+    </row>
+    <row r="965" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I965" s="12"/>
+    </row>
+    <row r="966" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I966" s="12"/>
+    </row>
+    <row r="967" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I967" s="12"/>
+    </row>
+    <row r="968" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I968" s="12"/>
+    </row>
+    <row r="969" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I969" s="12"/>
+    </row>
+    <row r="970" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I970" s="12"/>
+    </row>
+    <row r="971" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I971" s="12"/>
+    </row>
+    <row r="972" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I972" s="12"/>
+    </row>
+    <row r="973" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I973" s="12"/>
+    </row>
+    <row r="974" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I974" s="12"/>
+    </row>
+    <row r="975" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I975" s="12"/>
+    </row>
+    <row r="976" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I976" s="12"/>
+    </row>
+    <row r="977" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I977" s="12"/>
+    </row>
+    <row r="978" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I978" s="12"/>
+    </row>
+    <row r="979" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I979" s="12"/>
+    </row>
+    <row r="980" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I980" s="12"/>
+    </row>
+    <row r="981" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I981" s="12"/>
+    </row>
+    <row r="982" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I982" s="12"/>
+    </row>
+    <row r="983" spans="9:9" ht="17.25" thickBot="1">
+      <c r="I983" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/data/special/SpecialEvent_test.xlsx
+++ b/src/main/resources/data/special/SpecialEvent_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8265FE-C8F2-49CE-BBA2-1124D9964537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2370DCA8-0AD3-4D9D-9EB2-35D6172AAF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2220,7 +2220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2284,11 +2284,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2335,6 +2350,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2676,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2716,7 +2734,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="380.25" thickBot="1">
-      <c r="A2" s="4">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2833,7 +2851,7 @@
     </row>
     <row r="6" spans="1:9" ht="314.25" thickBot="1">
       <c r="A6" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -2862,7 +2880,7 @@
     </row>
     <row r="7" spans="1:9" ht="248.25" thickBot="1">
       <c r="A7" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -2891,7 +2909,7 @@
     </row>
     <row r="8" spans="1:9" ht="264.75" thickBot="1">
       <c r="A8" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -2920,7 +2938,7 @@
     </row>
     <row r="9" spans="1:9" ht="231.75" thickBot="1">
       <c r="A9" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>29</v>
@@ -2949,7 +2967,7 @@
     </row>
     <row r="10" spans="1:9" ht="231.75" thickBot="1">
       <c r="A10" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>32</v>
@@ -2978,7 +2996,7 @@
     </row>
     <row r="11" spans="1:9" ht="165.75" thickBot="1">
       <c r="A11" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>35</v>
@@ -3007,7 +3025,7 @@
     </row>
     <row r="12" spans="1:9" ht="130.5" thickBot="1">
       <c r="A12" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>38</v>
@@ -3036,7 +3054,7 @@
     </row>
     <row r="13" spans="1:9" ht="102" thickBot="1">
       <c r="A13" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -3065,7 +3083,7 @@
     </row>
     <row r="14" spans="1:9" ht="116.25" thickBot="1">
       <c r="A14" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>42</v>
@@ -3094,7 +3112,7 @@
     </row>
     <row r="15" spans="1:9" ht="116.25" thickBot="1">
       <c r="A15" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
@@ -3123,7 +3141,7 @@
     </row>
     <row r="16" spans="1:9" ht="116.25" thickBot="1">
       <c r="A16" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>46</v>
@@ -3152,7 +3170,7 @@
     </row>
     <row r="17" spans="1:9" ht="130.5" thickBot="1">
       <c r="A17" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>48</v>
@@ -3181,7 +3199,7 @@
     </row>
     <row r="18" spans="1:9" ht="116.25" thickBot="1">
       <c r="A18" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>50</v>
@@ -3210,7 +3228,7 @@
     </row>
     <row r="19" spans="1:9" ht="144.75" thickBot="1">
       <c r="A19" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>52</v>

--- a/src/main/resources/data/special/SpecialEvent_test.xlsx
+++ b/src/main/resources/data/special/SpecialEvent_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\special\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\sbluePlanet\backend\src\main\resources\data\special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD213EB-4FEB-4836-B241-C71E8BEFDBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35410B73-42BB-46BC-BFB7-23BD66821727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>title</t>
   </si>
@@ -298,6 +298,37 @@
   <si>
     <t>EXT019.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 언제부터인가</t>
+  </si>
+  <si>
+    <t>우리는 언제부터인가 \n
+푸른 하늘을 그리워하게 되었다. \n
+먼지 낀 창문 너머로 \n
+아이들이 그린 하늘은 언제나 파랗다. \n
+그 아이들은 아직, 진짜 하늘을 본 적이 없다. \n
+도시에선 바람이 사라졌고, \n
+강에서는 물이 흐르지 않고, \n
+사람들은 ‘조심해야 하는 공기’를 들이쉰다. \n
+당연했던 것들이 \n
+하나씩 기념일이 되었다. \n
+‘하늘 관측의 날’ \n
+‘생물다양성 주간’ \n
+‘마지막 비의 추모일’ \n
+그리고 마침내, 사람들은 말하기 시작했다. \n
+“정치가 아니라, 살아남을 수단이 필요하다.” \n
+그렇게 시작된 환경위원회. \n
+이름은 블루플래닛. \n
+그리고 당신, 모두가 잊고 있던 하늘의 색을 되찾아줄 사람. \n
+오늘, 당신이 내리는 선택은 \n
+단 한 사람의 생명을, 단 한 송이의 꽃을, \n
+그리고 단 한 줄기 공기를 지켜낼지 모른다. \n
+지금부터, \n
+그 모든 선택은 당신에게 달려 있다. \n</t>
+  </si>
+  <si>
+    <t>EXT000.png</t>
   </si>
 </sst>
 </file>
@@ -406,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -431,6 +462,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -914,7 +948,7 @@
     </row>
     <row r="6" spans="1:8" ht="314.25" thickBot="1">
       <c r="A6" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -940,7 +974,7 @@
     </row>
     <row r="7" spans="1:8" ht="248.25" thickBot="1">
       <c r="A7" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -966,7 +1000,7 @@
     </row>
     <row r="8" spans="1:8" ht="264.75" thickBot="1">
       <c r="A8" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -992,7 +1026,7 @@
     </row>
     <row r="9" spans="1:8" ht="231.75" thickBot="1">
       <c r="A9" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>29</v>
@@ -1018,7 +1052,7 @@
     </row>
     <row r="10" spans="1:8" ht="231.75" thickBot="1">
       <c r="A10" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>32</v>
@@ -1044,7 +1078,7 @@
     </row>
     <row r="11" spans="1:8" ht="165.75" thickBot="1">
       <c r="A11" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>35</v>
@@ -1070,7 +1104,7 @@
     </row>
     <row r="12" spans="1:8" ht="130.5" thickBot="1">
       <c r="A12" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>38</v>
@@ -1096,7 +1130,7 @@
     </row>
     <row r="13" spans="1:8" ht="102" thickBot="1">
       <c r="A13" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -1122,7 +1156,7 @@
     </row>
     <row r="14" spans="1:8" ht="116.25" thickBot="1">
       <c r="A14" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>42</v>
@@ -1148,7 +1182,7 @@
     </row>
     <row r="15" spans="1:8" ht="116.25" thickBot="1">
       <c r="A15" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
@@ -1174,7 +1208,7 @@
     </row>
     <row r="16" spans="1:8" ht="116.25" thickBot="1">
       <c r="A16" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>46</v>
@@ -1200,7 +1234,7 @@
     </row>
     <row r="17" spans="1:8" ht="130.5" thickBot="1">
       <c r="A17" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>48</v>
@@ -1226,7 +1260,7 @@
     </row>
     <row r="18" spans="1:8" ht="116.25" thickBot="1">
       <c r="A18" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>50</v>
@@ -1252,7 +1286,7 @@
     </row>
     <row r="19" spans="1:8" ht="144.75" thickBot="1">
       <c r="A19" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>52</v>
@@ -1274,6 +1308,32 @@
       </c>
       <c r="H19" s="8">
         <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/special/SpecialEvent_test.xlsx
+++ b/src/main/resources/data/special/SpecialEvent_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\special\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\sbluePlanet\backend\src\main\resources\data\special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2370DCA8-0AD3-4D9D-9EB2-35D6172AAF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA8FF2-654A-41C0-9F66-66D947980019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2694,7 +2694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
